--- a/HJA_sjSDM_paper/paper/Table_S_predictors.xlsx
+++ b/HJA_sjSDM_paper/paper/Table_S_predictors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\Oregon\paper - notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_sjSDM_paper\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15A7B05-5EF6-4026-94CB-260E01212D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAAC333-D069-4B5B-8DE7-3FDFE19BFEA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
+    <workbookView xWindow="25632" yWindow="1924" windowWidth="18851" windowHeight="9845" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
   <si>
     <t>be30</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>Distance to road</t>
+  </si>
+  <si>
+    <t>Used in model</t>
   </si>
 </sst>
 </file>
@@ -829,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AF1E92-1A70-4317-8820-8C19077DC4C1}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -840,9 +843,10 @@
     <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="3" max="3" width="73.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -855,8 +859,11 @@
       <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -870,7 +877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -884,7 +891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -898,7 +905,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -912,7 +919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -926,7 +933,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -940,7 +947,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -954,7 +961,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -968,7 +975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -982,7 +989,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1052,7 +1059,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>

--- a/HJA_sjSDM_paper/paper/Table_S_predictors.xlsx
+++ b/HJA_sjSDM_paper/paper/Table_S_predictors.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_sjSDM_paper\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAAC333-D069-4B5B-8DE7-3FDFE19BFEA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04F57EC-46F5-4684-8BDC-E79471840A39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25632" yWindow="1924" windowWidth="18851" windowHeight="9845" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$58</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="148">
   <si>
     <t>be30</t>
   </si>
@@ -472,6 +476,12 @@
   </si>
   <si>
     <t>Used in model</t>
+  </si>
+  <si>
+    <t>insideHJA</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -835,7 +845,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -918,6 +928,9 @@
       <c r="D5" t="s">
         <v>125</v>
       </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -932,6 +945,9 @@
       <c r="D6" t="s">
         <v>125</v>
       </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -946,6 +962,9 @@
       <c r="D7" t="s">
         <v>125</v>
       </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -960,6 +979,9 @@
       <c r="D8" t="s">
         <v>125</v>
       </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -988,6 +1010,9 @@
       <c r="D10" t="s">
         <v>125</v>
       </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1016,6 +1041,9 @@
       <c r="D12" t="s">
         <v>126</v>
       </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1030,6 +1058,9 @@
       <c r="D13" t="s">
         <v>126</v>
       </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1044,6 +1075,9 @@
       <c r="D14" t="s">
         <v>126</v>
       </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1072,8 +1106,11 @@
       <c r="D16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1086,8 +1123,11 @@
       <c r="D17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1101,7 +1141,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1114,8 +1154,11 @@
       <c r="D19" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1128,8 +1171,11 @@
       <c r="D20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -1142,8 +1188,11 @@
       <c r="D21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -1157,7 +1206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -1171,7 +1220,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -1185,7 +1234,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -1198,8 +1247,11 @@
       <c r="D25" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -1213,7 +1265,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1226,8 +1278,11 @@
       <c r="D27" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1241,7 +1296,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1255,7 +1310,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -1269,7 +1324,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -1283,7 +1338,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -1297,7 +1352,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -1311,7 +1366,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -1325,7 +1380,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -1339,7 +1394,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -1352,8 +1407,11 @@
       <c r="D36" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -1367,7 +1425,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -1381,7 +1439,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1395,7 +1453,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1409,7 +1467,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1423,7 +1481,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1436,8 +1494,11 @@
       <c r="D42" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1451,7 +1512,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -1464,8 +1525,11 @@
       <c r="D44" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -1478,8 +1542,11 @@
       <c r="D45" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -1493,7 +1560,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -1506,8 +1573,11 @@
       <c r="D47" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -1521,7 +1591,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -1535,7 +1605,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -1549,7 +1619,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1562,8 +1632,11 @@
       <c r="D51" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1576,8 +1649,11 @@
       <c r="D52" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1591,7 +1667,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1604,8 +1680,11 @@
       <c r="D54" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1618,8 +1697,11 @@
       <c r="D55" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1633,7 +1715,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1646,8 +1728,11 @@
       <c r="D57" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1660,8 +1745,12 @@
       <c r="D58" t="s">
         <v>124</v>
       </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E58" xr:uid="{50475641-03A9-44AF-8BAB-B3FA63B2D8B0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
     <sortCondition ref="D2:D20"/>
     <sortCondition ref="B2:B20"/>
@@ -1669,4 +1758,154 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC98DE3-BCB9-4503-94CA-3ED10959DCF9}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>